--- a/arca-front/data/test.xlsx
+++ b/arca-front/data/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DesktopFlako\Documents\Bootcamp Kruger\x-games\arca-front\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BA5A1F-7952-4A4C-AAC0-4665B4D942EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FBB5BD-B112-4111-AB2D-904090E4DFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
